--- a/src/test/resources/data/Standard for test.xlsx
+++ b/src/test/resources/data/Standard for test.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eomar\git\TrickService\src\test\resources\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22515" windowHeight="6570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22517" windowHeight="6574" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NormInfo" sheetId="1" r:id="rId1"/>
@@ -35,12 +40,6 @@
     <t>Reference</t>
   </si>
   <si>
-    <t>Domain_fr</t>
-  </si>
-  <si>
-    <t>Description_fr</t>
-  </si>
-  <si>
     <t>Domain_eng</t>
   </si>
   <si>
@@ -96,12 +95,18 @@
   </si>
   <si>
     <t>1.1.1</t>
+  </si>
+  <si>
+    <t>Domain_fra</t>
+  </si>
+  <si>
+    <t>Description_fra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -141,10 +146,10 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -169,7 +174,7 @@
     <tableColumn id="1" name="Name" dataDxfId="2"/>
     <tableColumn id="2" name="Version"/>
     <tableColumn id="3" name="Description"/>
-    <tableColumn id="4" name="Computable" dataDxfId="0"/>
+    <tableColumn id="4" name="Computable" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -180,12 +185,12 @@
   <autoFilter ref="A1:G4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Level"/>
-    <tableColumn id="2" name="Reference" dataDxfId="1"/>
+    <tableColumn id="2" name="Reference" dataDxfId="0"/>
     <tableColumn id="5" name="Computable"/>
     <tableColumn id="3" name="Domain_eng"/>
     <tableColumn id="4" name="Description_eng"/>
-    <tableColumn id="6" name="Domain_fr"/>
-    <tableColumn id="7" name="Description_fr"/>
+    <tableColumn id="6" name="Domain_fra"/>
+    <tableColumn id="7" name="Description_fra"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -234,7 +239,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -267,9 +272,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -302,6 +324,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -480,19 +519,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.3828125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.85546875" customWidth="1"/>
+    <col min="3" max="3" width="43.84375" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -506,15 +545,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>2015</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="b">
         <v>1</v>
@@ -533,22 +572,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3046875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.42578125" customWidth="1"/>
-    <col min="7" max="7" width="36.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.3046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.69140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.3828125" customWidth="1"/>
+    <col min="7" max="7" width="36.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -559,85 +598,85 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
